--- a/OpenRule1um.xlsx
+++ b/OpenRule1um.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="19220" windowHeight="17760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19215" windowHeight="17760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Width</t>
     <phoneticPr fontId="1"/>
@@ -390,14 +390,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OpenRule1um ver1.20 (18/04/13)</t>
+    <t>OpenRule1um ver1.30 (20/09/23)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※間隔=0で密着、または間隔をあけるなら1.5um以上(200923:akita1)</t>
+    <rPh sb="1" eb="3">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミッチャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -564,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,19 +1001,19 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="68.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
         <v>10</v>
@@ -1016,7 +1029,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -1034,7 +1047,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -1052,7 +1065,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -1070,7 +1083,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="24"/>
@@ -1080,7 +1093,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1098,7 +1111,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1116,7 +1129,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1134,7 +1147,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -1152,7 +1165,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -1170,7 +1183,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1188,7 +1201,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -1206,7 +1219,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -1224,7 +1237,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -1242,7 +1255,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -1260,7 +1273,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -1278,7 +1291,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -1296,7 +1309,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -1314,7 +1327,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -1332,7 +1345,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -1350,7 +1363,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -1368,7 +1381,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -1386,7 +1399,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -1404,7 +1417,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -1422,7 +1435,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -1440,7 +1453,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -1458,7 +1471,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -1476,7 +1489,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1486,7 +1499,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
@@ -1496,7 +1509,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1506,7 +1519,7 @@
       <c r="G32" s="17"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1516,7 +1529,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1526,7 +1539,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1536,7 +1549,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="18"/>
@@ -1546,7 +1559,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1556,7 +1569,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1566,7 +1579,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -1576,7 +1589,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -1586,7 +1599,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1596,7 +1609,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1620,24 +1633,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1691,7 +1704,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -1723,7 +1736,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>11</v>
       </c>
@@ -1743,7 +1756,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>12</v>
       </c>
@@ -1763,7 +1776,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>13</v>
       </c>
@@ -1781,7 +1794,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>14</v>
       </c>
@@ -1799,7 +1812,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>15</v>
       </c>
@@ -1817,7 +1830,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -1827,7 +1840,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>21</v>
       </c>
@@ -1847,7 +1860,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>22</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>23</v>
       </c>
@@ -1887,7 +1900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -1907,7 +1920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>24</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>25</v>
       </c>
@@ -1947,9 +1960,11 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>26</v>
       </c>
@@ -1971,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>27</v>
       </c>
@@ -1991,7 +2006,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2001,7 +2016,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>31</v>
       </c>
@@ -2021,7 +2036,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>32</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>33</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2073,7 +2088,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>41</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>46</v>
       </c>
@@ -2139,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43</v>
       </c>
@@ -2159,7 +2174,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>44</v>
       </c>
@@ -2181,7 +2196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2191,7 +2206,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>51</v>
       </c>
@@ -2213,7 +2228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>52</v>
       </c>
@@ -2231,7 +2246,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>53</v>
       </c>
@@ -2249,7 +2264,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>54</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2279,7 +2294,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>61</v>
       </c>
@@ -2299,7 +2314,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>62</v>
       </c>
@@ -2319,7 +2334,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>63</v>
       </c>
@@ -2339,7 +2354,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2349,7 +2364,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>71</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>72</v>
       </c>
@@ -2389,7 +2404,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>73</v>
       </c>
@@ -2411,7 +2426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>74</v>
       </c>
@@ -2431,7 +2446,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2441,7 +2456,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>81</v>
       </c>
@@ -2461,7 +2476,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>82</v>
       </c>
@@ -2481,7 +2496,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>83</v>
       </c>
@@ -2501,7 +2516,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2511,7 +2526,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>91</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>92</v>
       </c>
@@ -2551,7 +2566,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>93</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2583,7 +2598,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>101</v>
       </c>
@@ -2603,7 +2618,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>102</v>
       </c>
@@ -2623,7 +2638,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2633,7 +2648,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2646,7 +2661,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2661,7 +2676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,7 +2695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OpenRule1um.xlsx
+++ b/OpenRule1um.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D3099-E7BD-BF4B-8667-599541CC47DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A34E4-0F41-1E48-B29C-EC9B5AA06220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4240" windowWidth="20140" windowHeight="24560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4240" windowWidth="20140" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>Width</t>
     <phoneticPr fontId="1"/>
@@ -334,39 +334,13 @@
     <t xml:space="preserve">VIA1 </t>
   </si>
   <si>
-    <t>VIA1は提供セルでの使用のみ</t>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stucked VIA1 (common hole center) ok</t>
-  </si>
-  <si>
     <t>VIA1</t>
   </si>
   <si>
     <t xml:space="preserve">VIA2 </t>
   </si>
   <si>
-    <t>VIA2は提供セルでの使用のみ</t>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VIA2</t>
-  </si>
-  <si>
-    <t>Stucked VIA2 (common hole center) ok</t>
   </si>
   <si>
     <t>NWL</t>
@@ -483,14 +457,105 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>v1.40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レイヤ名</t>
     <rPh sb="3" eb="4">
       <t xml:space="preserve">メイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅15um以上のMLのみ適用。CM_dcn等の周囲に0.5um以上のML1をかぶせる。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハバ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テキヨウ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DM_dcn/pcn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA1 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stacked VIA2 (common hole center) ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stacked VIA1 (common hole center) ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIA1(セル名：Via)は提供セルでの使用のみ</t>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIA2（セル名：Via2）は提供セルでの使用のみ</t>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIA1/VIA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅15um以上のMLのみ適用。VIA2の周囲に0.5um以上のML3をかぶせる。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハバ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テキヨウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅15um以上のMLのみ適用。VIA1/VIA2の周囲に0.5um以上のML2をかぶせる。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハバ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テキヨウ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.50</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1140,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1163,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1180,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1197,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1215,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1245,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1265,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1285,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1305,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1325,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1345,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1365,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1385,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1405,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1425,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1445,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1465,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1485,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1505,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1525,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1545,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1565,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1823,9 +1888,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1840,7 +1905,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="H1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2203,7 +2268,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2524,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2544,71 +2609,71 @@
         <v>7</v>
       </c>
       <c r="E39" s="30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="2">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="30">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2">
-        <v>71</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>7</v>
@@ -2618,19 +2683,17 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>7</v>
@@ -2640,199 +2703,209 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="2">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0.5</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="30">
-        <v>1</v>
-      </c>
-      <c r="E46" s="30">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="30">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="2">
-        <v>82</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
       </c>
       <c r="E48" s="30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="2">
+        <v>82</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="30">
+        <v>0.5</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="30">
+        <v>0.5</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="30">
+        <v>103</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="30">
         <v>0.5</v>
       </c>
-      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="2">
-        <v>93</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="2">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="30">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E54" s="30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="32">
-        <v>102</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="33" t="s">
+      <c r="A55" s="2">
+        <v>93</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="30">
         <v>0.5</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="32"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2"/>
@@ -2846,80 +2919,150 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="D57" s="30">
+        <v>1</v>
+      </c>
+      <c r="E57" s="30">
+        <v>1</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="2">
+      <c r="A58" s="32">
+        <v>102</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="32"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2">
+        <v>103</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2">
         <v>111</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3">
+      <c r="D62" s="7"/>
+      <c r="E62" s="3">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F62" s="3">
         <v>5</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="36">
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="36">
         <v>112</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D63" s="37">
         <v>1.5</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E63" s="37">
         <v>2</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="C62" s="13" t="s">
-        <v>96</v>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
